--- a/medicine/Psychotrope/Berlandieri-Colombard_2/Berlandieri-Colombard_2.xlsx
+++ b/medicine/Psychotrope/Berlandieri-Colombard_2/Berlandieri-Colombard_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berlandieri colombard 2 est une variété de vigne sélectionnée pour jouer le rôle de porte-greffe. Il est couramment abrégé en BC 2.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps, son nom a supposé un croisement entre Vitis berlandieri et Vitis vinifera variété colombard. Des analyses génétiques au cours des années 1990-2005 ont démontré qu'il s'agit en fait de Vitis berlandieri et Vitis vinifera variété ugni blanc.
 Il a été créé par Blanchard et Vidal en 1894.
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bourgeonnement est ouvert et cotonneux, bordé d'un liseré rouge vif. Les jeunes feuilles sont bronzées.
 Le rameau herbacé est côtelé.
@@ -579,10 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adaptation au terroir
-Le BC 2 présente une bonne résistance au phylloxera radicole, comme une bonne adaptation aux terrains calcaires : il supporte jusqu'à 40 % de calcaire actif.
-Aptitude au greffage
-Il présente une aptitude moyenne au bouturage et une bonne aptitude au greffage. Il confère au greffon une bonne rapidité de développement. 
+          <t>Adaptation au terroir</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le BC 2 présente une bonne résistance au phylloxera radicole, comme une bonne adaptation aux terrains calcaires : il supporte jusqu'à 40 % de calcaire actif.
 </t>
         </is>
       </c>
@@ -608,10 +627,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aptitude au greffage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il présente une aptitude moyenne au bouturage et une bonne aptitude au greffage. Il confère au greffon une bonne rapidité de développement. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Berlandieri-Colombard_2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berlandieri-Colombard_2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
